--- a/directory/templates/template-histori-pegawai.xlsx
+++ b/directory/templates/template-histori-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DBFECA-E683-4BE3-B387-126F0F7469EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EE05A-5F72-47EA-B418-8174970721E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>[mesin_nama]</t>
   </si>
   <si>
-    <t>Departemen : {departemen}</t>
-  </si>
-  <si>
     <t>[tanggal]</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>[jam_absen]</t>
+  </si>
+  <si>
+    <t>NRP : {nrp}</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -748,7 +748,7 @@
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="2"/>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>5</v>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="20"/>
       <c r="K8" s="12"/>
@@ -876,10 +876,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
